--- a/docs/formatos/avanceCompetencias.xlsx
+++ b/docs/formatos/avanceCompetencias.xlsx
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +672,7 @@
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -693,6 +694,7 @@
       <c r="Q2" s="20"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -836,6 +838,10 @@
       <c r="H10" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
